--- a/Documentation/backlog.xlsx
+++ b/Documentation/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A9FE60-009F-44D5-B12D-260CAD1FBA29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC6E20B-3CBF-413F-BE09-677EB0591A6F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCC925F4-5354-4FEF-852A-AFB0FB601A22}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{DCC925F4-5354-4FEF-852A-AFB0FB601A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>US-1</t>
   </si>
   <si>
@@ -85,18 +82,12 @@
     <t>I want to access to a list of existing charms</t>
   </si>
   <si>
-    <t>I want to access to a list of existing talents</t>
-  </si>
-  <si>
     <t>I want to generate a build</t>
   </si>
   <si>
     <t>Filtering list with existing armors</t>
   </si>
   <si>
-    <t>Filtering list with existing talents</t>
-  </si>
-  <si>
     <t>Filtering list with existing charms</t>
   </si>
   <si>
@@ -113,6 +104,15 @@
   </si>
   <si>
     <t>As player</t>
+  </si>
+  <si>
+    <t>I want to access to a list of existing weapons</t>
+  </si>
+  <si>
+    <t>Filtering list with existing weapons</t>
+  </si>
+  <si>
+    <t>Feature description</t>
   </si>
 </sst>
 </file>
@@ -165,9 +165,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -175,6 +172,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -203,21 +203,21 @@
   <autoFilter ref="A1:D7" xr:uid="{0D765F28-CC12-4A97-98A6-875964F3505A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CADF3A40-8056-464C-9026-5D6E5D138A83}" name="ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{54B6484C-C181-40A1-B683-78401341AF36}" name="Role" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{54B6484C-C181-40A1-B683-78401341AF36}" name="Role" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{28D5B8C8-FBAC-4EE9-AEE6-5BC872CD2512}" name="Context"/>
-    <tableColumn id="3" xr3:uid="{387FD88E-8449-4C72-9384-63792D2B584F}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{387FD88E-8449-4C72-9384-63792D2B584F}" name="Feature description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EC0F617-D470-477E-8C01-ABD2E89C68DD}" name="Tableau1" displayName="Tableau1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EC0F617-D470-477E-8C01-ABD2E89C68DD}" name="Tableau1" displayName="Tableau1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C3" xr:uid="{2264239A-1F35-4FBE-A312-0F8B79330808}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E7EBC04E-3E87-4EE8-A161-49D47D9CC847}" name="User ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{047FBF56-8EAE-428C-9670-19B740A23517}" name="User role" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C51B5B5C-82A1-444C-A880-080D020ADA32}" name="Context" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E7EBC04E-3E87-4EE8-A161-49D47D9CC847}" name="User ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{047FBF56-8EAE-428C-9670-19B740A23517}" name="User role" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C51B5B5C-82A1-444C-A880-080D020ADA32}" name="Context" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,7 +523,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,77 +540,77 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -621,16 +621,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -658,13 +658,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -683,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Documentation/backlog.xlsx
+++ b/Documentation/backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Desktop\WORKSPACE\MHW_API\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Desktop\WORKSPACE\MHW_API\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F59F1-87A1-442C-A3E0-543E45847643}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95430A4C-E1C1-410F-8E53-B1EA401A0691}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCC925F4-5354-4FEF-852A-AFB0FB601A22}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -251,6 +251,36 @@
   </si>
   <si>
     <t>Filters the list by a selected Sharpness attribute</t>
+  </si>
+  <si>
+    <t>Environneent de développement</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>Générer le code de l'API pour extraire toutes les armes</t>
+  </si>
+  <si>
+    <t>Récupérer les données et les afficher</t>
+  </si>
+  <si>
+    <t>Afficher les données</t>
+  </si>
+  <si>
+    <t>Estimer le temps</t>
+  </si>
+  <si>
+    <t>Tâches techniques</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Récupérer les données de Xtend</t>
+  </si>
+  <si>
+    <t>Création d'un front</t>
   </si>
 </sst>
 </file>
@@ -329,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,6 +380,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,8 +421,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEDE8C4-B8A5-449D-A6A2-A837A2BC10CB}" name="Tableau2" displayName="Tableau2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:D9" xr:uid="{0D765F28-CC12-4A97-98A6-875964F3505A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEDE8C4-B8A5-449D-A6A2-A837A2BC10CB}" name="Tableau2" displayName="Tableau2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:D17" xr:uid="{0D765F28-CC12-4A97-98A6-875964F3505A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CADF3A40-8056-464C-9026-5D6E5D138A83}" name="ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{28D5B8C8-FBAC-4EE9-AEE6-5BC872CD2512}" name="Context"/>
@@ -708,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD85003-EF2D-4B8D-A07E-08E02CCF0D59}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,212 +872,280 @@
       </c>
       <c r="D9" s="9"/>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9"/>
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
+      <c r="A23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="8" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
